--- a/doc/Testfälle.xlsx
+++ b/doc/Testfälle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tekoedu-my.sharepoint.com/personal/dominic_rohner_edu_teko_ch/Documents/Lösungsalgorithmen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Repos\wissensmanagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{4CBC558A-F11A-40BE-81CE-B36FFE8E24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCCC7475-1CAA-4FB6-B119-8115A849FAA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A68FD3A-9F6E-4489-AD1A-62939CC64C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5475" windowWidth="38640" windowHeight="21120" xr2:uid="{BFCE4AD6-5E1E-4E64-9F22-700647569BA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFCE4AD6-5E1E-4E64-9F22-700647569BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Anforderung</t>
   </si>
@@ -102,25 +102,13 @@
     <t>Es konnten nur drei Tags zugeordnet werden. Beim vierten Tag erscheint ein Fehler.</t>
   </si>
   <si>
-    <t>Es werden 5 Informationen generiert. Diese werden 5 Projekten zugeordent.</t>
-  </si>
-  <si>
-    <t>Es ist bei 5/5 Informationen erkennbar, dass diese hinzugefügt wurden.</t>
-  </si>
-  <si>
     <t>Anzahl Tags überprüfen</t>
   </si>
   <si>
-    <t>Informationen suchen</t>
-  </si>
-  <si>
     <t>Es werden 5 zuvor erstellte Tags gesucht.</t>
   </si>
   <si>
     <t>Bei 5/5 Tags wird die korrekte Information angezeigt.</t>
-  </si>
-  <si>
-    <t>Informationen nachträglich hinzufügen</t>
   </si>
   <si>
     <t>Projekt erstellen</t>
@@ -134,13 +122,76 @@
   </si>
   <si>
     <t>Die Tags sind bei 5/5 korrekten Projetken zugeordnet.</t>
+  </si>
+  <si>
+    <t>Kommentar nachträglich hinzufügen</t>
+  </si>
+  <si>
+    <t>Es werden 5 Kommentare generiert. Diese werden 5 Projekten zugeordent.</t>
+  </si>
+  <si>
+    <t>Es ist bei 5/5 Kommentaren erkennbar, dass diese hinzugefügt wurden.</t>
+  </si>
+  <si>
+    <t>Kommentar zu Projekt hinzufügen</t>
+  </si>
+  <si>
+    <t>5/5 Kommentare sind dem korrekten Projekt zugeordnet.</t>
+  </si>
+  <si>
+    <t>Nach Tags suchen</t>
+  </si>
+  <si>
+    <t>Nach Projekt suchen</t>
+  </si>
+  <si>
+    <t>Es werden nach 5 Projekten gesucht. Dabei erscheinen die zuvor erstellten Informationen.</t>
+  </si>
+  <si>
+    <t>Bei 5/5 Projekten werden die zuvor erstellten Informationen ausgegeben.</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Kritische Abweichung</t>
+  </si>
+  <si>
+    <t>--&gt; Abnahme gescheitert</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Hauptfehler</t>
+  </si>
+  <si>
+    <t>--&gt; Bereinigt bis Datum</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Nebenfehler</t>
+  </si>
+  <si>
+    <t>--&gt; werden manchmal behoben</t>
+  </si>
+  <si>
+    <t>5/5 werden angelegt</t>
+  </si>
+  <si>
+    <t>Erfüllt/Nicht erfüllt</t>
+  </si>
+  <si>
+    <t>✓</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,8 +207,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +257,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,11 +287,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -212,6 +325,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,22 +684,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B408EC56-EFD0-45CB-A544-6766DCC6FD64}">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
     <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,21 +716,31 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -602,9 +751,12 @@
         <v>8</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -615,9 +767,12 @@
         <v>11</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,12 +780,15 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -641,9 +799,12 @@
         <v>14</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -651,14 +812,17 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -667,35 +831,123 @@
         <v>20</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+      <c r="E17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="14"/>
+      <c r="E19" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D21" s="16"/>
+      <c r="E21" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Testfälle.xlsx
+++ b/doc/Testfälle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domin\Repos\wissensmanagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A68FD3A-9F6E-4489-AD1A-62939CC64C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE11C6F-E4F6-4065-ADC2-526BCBD05B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFCE4AD6-5E1E-4E64-9F22-700647569BA9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Anforderung</t>
   </si>
@@ -185,6 +185,36 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>5/5 Informationen werden abgespeichert</t>
+  </si>
+  <si>
+    <t>5/5 Texte sind zugeordnet</t>
+  </si>
+  <si>
+    <t>5/5 Bilder sind zugeordnet</t>
+  </si>
+  <si>
+    <t>5/5 URLs sind zugeordnet</t>
+  </si>
+  <si>
+    <t>5/5 Tags sind zugeordnet</t>
+  </si>
+  <si>
+    <t>Drei Tags konnten zugeordet werden</t>
+  </si>
+  <si>
+    <t>5/5 Kommentare sind zugeordnet</t>
+  </si>
+  <si>
+    <t>5/5 Kommentare sind erkennbar</t>
+  </si>
+  <si>
+    <t>5/5 Informationen werden ausgeordnet</t>
+  </si>
+  <si>
+    <t>5/5 korrekte Informationen werden angezeigt</t>
   </si>
 </sst>
 </file>
@@ -343,13 +373,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,15 +717,15 @@
   <dimension ref="A2:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
     <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -720,7 +750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -736,11 +766,11 @@
       <c r="E3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -750,13 +780,17 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -766,13 +800,17 @@
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -782,13 +820,17 @@
       <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -798,13 +840,17 @@
       <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -814,13 +860,17 @@
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -830,13 +880,17 @@
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -846,13 +900,17 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -862,13 +920,17 @@
       <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F11" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -878,11 +940,15 @@
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -894,14 +960,18 @@
       <c r="C13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -909,13 +979,13 @@
       </c>
     </row>
     <row r="17" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -923,13 +993,13 @@
       </c>
     </row>
     <row r="19" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -937,7 +1007,7 @@
       </c>
     </row>
     <row r="21" spans="4:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="10" t="s">
         <v>45</v>
       </c>
